--- a/Runtime statistics.xlsx
+++ b/Runtime statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CFD\shixi_zengdao\IAMR_Code\IAMR_Tutorial_Profiling_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B168DD5-629F-402D-8B60-2CEE10BBA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E198E7-3E21-4954-850B-EE9A639B1962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,14 +140,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D934AF4-408A-42B0-AD91-F7EA715A6D7B}">
   <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
@@ -531,6 +531,18 @@
       <c r="F2" s="3">
         <v>4</v>
       </c>
+      <c r="G2" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>200</v>
+      </c>
+      <c r="I2" s="3">
+        <v>267.32</v>
+      </c>
+      <c r="J2" s="3">
+        <v>200</v>
+      </c>
       <c r="L2" s="3">
         <v>1</v>
       </c>
@@ -552,9 +564,15 @@
       <c r="R2" s="3">
         <v>33.67</v>
       </c>
+      <c r="S2" s="3">
+        <v>1761</v>
+      </c>
       <c r="T2" s="3">
         <v>283.01</v>
       </c>
+      <c r="U2" s="3">
+        <v>1761</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="3">
@@ -575,6 +593,18 @@
       <c r="F3" s="3">
         <v>8</v>
       </c>
+      <c r="G3" s="3">
+        <v>23.82</v>
+      </c>
+      <c r="H3" s="3">
+        <v>200</v>
+      </c>
+      <c r="I3" s="3">
+        <v>245.03</v>
+      </c>
+      <c r="J3" s="3">
+        <v>200</v>
+      </c>
       <c r="L3" s="3">
         <v>2</v>
       </c>
@@ -596,8 +626,14 @@
       <c r="R3" s="3">
         <v>33.44</v>
       </c>
+      <c r="S3" s="3">
+        <v>1746</v>
+      </c>
       <c r="T3" s="3">
         <v>272.95999999999998</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1746</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -619,6 +655,18 @@
       <c r="F4" s="3">
         <v>4</v>
       </c>
+      <c r="G4" s="3">
+        <v>121.17</v>
+      </c>
+      <c r="H4" s="3">
+        <v>200</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3223.81</v>
+      </c>
+      <c r="J4" s="3">
+        <v>200</v>
+      </c>
       <c r="L4" s="3">
         <v>3</v>
       </c>
@@ -640,9 +688,15 @@
       <c r="R4" s="3">
         <v>50.7</v>
       </c>
+      <c r="S4" s="3">
+        <v>1761</v>
+      </c>
       <c r="T4" s="3">
         <v>453.95</v>
       </c>
+      <c r="U4" s="3">
+        <v>1761</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="3">
@@ -663,6 +717,18 @@
       <c r="F5" s="3">
         <v>8</v>
       </c>
+      <c r="G5" s="3">
+        <v>124.28</v>
+      </c>
+      <c r="H5" s="3">
+        <v>200</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2338.7600000000002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>200</v>
+      </c>
       <c r="L5" s="3">
         <v>4</v>
       </c>
@@ -684,8 +750,14 @@
       <c r="R5" s="3">
         <v>54.17</v>
       </c>
+      <c r="S5" s="3">
+        <v>1749</v>
+      </c>
       <c r="T5" s="3">
         <v>506.85</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1749</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -707,6 +779,18 @@
       <c r="F6" s="3">
         <v>4</v>
       </c>
+      <c r="G6" s="3">
+        <v>15.78</v>
+      </c>
+      <c r="H6" s="3">
+        <v>200</v>
+      </c>
+      <c r="I6" s="3">
+        <v>123.32</v>
+      </c>
+      <c r="J6" s="3">
+        <v>200</v>
+      </c>
       <c r="L6" s="3">
         <v>5</v>
       </c>
@@ -728,8 +812,14 @@
       <c r="R6" s="3">
         <v>28.42</v>
       </c>
+      <c r="S6" s="3">
+        <v>1761</v>
+      </c>
       <c r="T6" s="3">
         <v>220.43</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1761</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -751,6 +841,18 @@
       <c r="F7" s="3">
         <v>8</v>
       </c>
+      <c r="G7" s="3">
+        <v>15.53</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200</v>
+      </c>
+      <c r="I7" s="3">
+        <v>116.56</v>
+      </c>
+      <c r="J7" s="3">
+        <v>200</v>
+      </c>
       <c r="L7" s="3">
         <v>6</v>
       </c>
@@ -772,8 +874,14 @@
       <c r="R7" s="3">
         <v>27.51</v>
       </c>
+      <c r="S7" s="3">
+        <v>1746</v>
+      </c>
       <c r="T7" s="3">
         <v>209.27</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1746</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -795,6 +903,18 @@
       <c r="F8" s="3">
         <v>4</v>
       </c>
+      <c r="G8" s="3">
+        <v>75.08</v>
+      </c>
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1045.1400000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>200</v>
+      </c>
       <c r="L8" s="3">
         <v>7</v>
       </c>
@@ -816,9 +936,15 @@
       <c r="R8" s="3">
         <v>45.06</v>
       </c>
+      <c r="S8" s="3">
+        <v>1761</v>
+      </c>
       <c r="T8" s="3">
         <v>364.13</v>
       </c>
+      <c r="U8" s="3">
+        <v>1761</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="3">
@@ -839,6 +965,18 @@
       <c r="F9" s="3">
         <v>8</v>
       </c>
+      <c r="G9" s="3">
+        <v>70.53</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>916.26</v>
+      </c>
+      <c r="J9" s="3">
+        <v>200</v>
+      </c>
       <c r="L9" s="3">
         <v>8</v>
       </c>
@@ -860,8 +998,14 @@
       <c r="R9" s="3">
         <v>49.9</v>
       </c>
+      <c r="S9" s="3">
+        <v>1749</v>
+      </c>
       <c r="T9" s="3">
         <v>406.44</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1749</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -883,6 +1027,18 @@
       <c r="F10" s="3">
         <v>4</v>
       </c>
+      <c r="G10" s="3">
+        <v>15.08</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>185.23</v>
+      </c>
+      <c r="J10" s="3">
+        <v>200</v>
+      </c>
       <c r="L10" s="3">
         <v>9</v>
       </c>
@@ -904,9 +1060,15 @@
       <c r="R10" s="3">
         <v>56.13</v>
       </c>
+      <c r="S10" s="3">
+        <v>3540</v>
+      </c>
       <c r="T10" s="3">
         <v>469.84</v>
       </c>
+      <c r="U10" s="3">
+        <v>3540</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="3">
@@ -927,6 +1089,18 @@
       <c r="F11" s="3">
         <v>8</v>
       </c>
+      <c r="G11" s="3">
+        <v>15.57</v>
+      </c>
+      <c r="H11" s="3">
+        <v>200</v>
+      </c>
+      <c r="I11" s="3">
+        <v>181.81</v>
+      </c>
+      <c r="J11" s="3">
+        <v>200</v>
+      </c>
       <c r="L11" s="3">
         <v>10</v>
       </c>
@@ -948,9 +1122,15 @@
       <c r="R11" s="3">
         <v>58.17</v>
       </c>
+      <c r="S11" s="3">
+        <v>3531</v>
+      </c>
       <c r="T11" s="3">
         <v>469.57</v>
       </c>
+      <c r="U11" s="3">
+        <v>3531</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="3">
@@ -971,6 +1151,18 @@
       <c r="F12" s="3">
         <v>4</v>
       </c>
+      <c r="G12" s="3">
+        <v>29.28</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>516.04</v>
+      </c>
+      <c r="J12" s="3">
+        <v>200</v>
+      </c>
       <c r="L12" s="3">
         <v>11</v>
       </c>
@@ -992,8 +1184,14 @@
       <c r="R12" s="3">
         <v>64.61</v>
       </c>
+      <c r="S12" s="3">
+        <v>3773</v>
+      </c>
       <c r="T12" s="3">
         <v>537.39</v>
+      </c>
+      <c r="U12" s="3">
+        <v>3773</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1015,6 +1213,18 @@
       <c r="F13" s="3">
         <v>8</v>
       </c>
+      <c r="G13" s="3">
+        <v>28.71</v>
+      </c>
+      <c r="H13" s="3">
+        <v>200</v>
+      </c>
+      <c r="I13" s="3">
+        <v>427.9</v>
+      </c>
+      <c r="J13" s="3">
+        <v>200</v>
+      </c>
       <c r="L13" s="3">
         <v>12</v>
       </c>
@@ -1036,8 +1246,14 @@
       <c r="R13" s="3">
         <v>70.7</v>
       </c>
+      <c r="S13" s="3">
+        <v>4011</v>
+      </c>
       <c r="T13" s="3">
         <v>585.16999999999996</v>
+      </c>
+      <c r="U13" s="3">
+        <v>4011</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1059,6 +1275,18 @@
       <c r="F14" s="3">
         <v>4</v>
       </c>
+      <c r="G14" s="3">
+        <v>11.33</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>80.98</v>
+      </c>
+      <c r="J14" s="3">
+        <v>200</v>
+      </c>
       <c r="L14" s="3">
         <v>13</v>
       </c>
@@ -1080,8 +1308,14 @@
       <c r="R14" s="3">
         <v>49.45</v>
       </c>
+      <c r="S14" s="3">
+        <v>3540</v>
+      </c>
       <c r="T14" s="3">
         <v>355.12</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3540</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1103,6 +1337,18 @@
       <c r="F15" s="3">
         <v>8</v>
       </c>
+      <c r="G15" s="3">
+        <v>10.93</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="J15" s="3">
+        <v>200</v>
+      </c>
       <c r="L15" s="3">
         <v>14</v>
       </c>
@@ -1124,8 +1370,14 @@
       <c r="R15" s="3">
         <v>49.57</v>
       </c>
+      <c r="S15" s="3">
+        <v>3531</v>
+      </c>
       <c r="T15" s="3">
         <v>348.28</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3531</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1147,6 +1399,18 @@
       <c r="F16" s="3">
         <v>4</v>
       </c>
+      <c r="G16" s="3">
+        <v>21.38</v>
+      </c>
+      <c r="H16" s="3">
+        <v>200</v>
+      </c>
+      <c r="I16" s="3">
+        <v>203.03</v>
+      </c>
+      <c r="J16" s="3">
+        <v>200</v>
+      </c>
       <c r="L16" s="3">
         <v>15</v>
       </c>
@@ -1168,11 +1432,17 @@
       <c r="R16" s="3">
         <v>53.71</v>
       </c>
+      <c r="S16" s="3">
+        <v>3773</v>
+      </c>
       <c r="T16" s="3">
         <v>404.81</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="3">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1190,6 +1460,18 @@
       </c>
       <c r="F17" s="3">
         <v>8</v>
+      </c>
+      <c r="G17" s="3">
+        <v>21.16</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>184.95</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>16</v>
@@ -1212,11 +1494,17 @@
       <c r="R17" s="3">
         <v>60.36</v>
       </c>
+      <c r="S17" s="3">
+        <v>4011</v>
+      </c>
       <c r="T17" s="3">
         <v>441.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="3">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1254,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1292,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1330,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1368,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1406,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1444,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1482,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1520,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1558,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1596,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1634,7 +1922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1672,7 +1960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1710,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1748,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1908,9 +2196,15 @@
       <c r="G38" s="3">
         <v>35.57</v>
       </c>
+      <c r="H38" s="3">
+        <v>200</v>
+      </c>
       <c r="I38" s="3">
         <v>610.71</v>
       </c>
+      <c r="J38" s="3">
+        <v>200</v>
+      </c>
       <c r="L38" s="3">
         <v>1</v>
       </c>
@@ -1932,9 +2226,15 @@
       <c r="R38" s="3">
         <v>20.05</v>
       </c>
+      <c r="S38" s="3">
+        <v>200</v>
+      </c>
       <c r="T38" s="3">
         <v>358.25</v>
       </c>
+      <c r="U38" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="3">
@@ -1958,9 +2258,15 @@
       <c r="G39" s="3">
         <v>36.07</v>
       </c>
+      <c r="H39" s="3">
+        <v>200</v>
+      </c>
       <c r="I39" s="3">
         <v>567.28</v>
       </c>
+      <c r="J39" s="3">
+        <v>200</v>
+      </c>
       <c r="L39" s="3">
         <v>2</v>
       </c>
@@ -1982,8 +2288,14 @@
       <c r="R39" s="3">
         <v>18.239999999999998</v>
       </c>
+      <c r="S39" s="3">
+        <v>200</v>
+      </c>
       <c r="T39" s="3">
         <v>355.47</v>
+      </c>
+      <c r="U39" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2026,9 +2338,15 @@
       <c r="R40" s="3">
         <v>32.94</v>
       </c>
+      <c r="S40" s="3">
+        <v>200</v>
+      </c>
       <c r="T40" s="3">
         <v>637.64</v>
       </c>
+      <c r="U40" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="3">
@@ -2070,8 +2388,14 @@
       <c r="R41" s="3">
         <v>32.78</v>
       </c>
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
       <c r="T41" s="3">
         <v>605.05999999999995</v>
+      </c>
+      <c r="U41" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2096,9 +2420,15 @@
       <c r="G42" s="3">
         <v>21.55</v>
       </c>
+      <c r="H42" s="3">
+        <v>200</v>
+      </c>
       <c r="I42" s="3">
         <v>260.94</v>
       </c>
+      <c r="J42" s="3">
+        <v>200</v>
+      </c>
       <c r="L42" s="3">
         <v>5</v>
       </c>
@@ -2120,8 +2450,14 @@
       <c r="R42" s="3">
         <v>14.09</v>
       </c>
+      <c r="S42" s="3">
+        <v>200</v>
+      </c>
       <c r="T42" s="3">
         <v>142.15</v>
+      </c>
+      <c r="U42" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -2146,9 +2482,15 @@
       <c r="G43" s="3">
         <v>21.51</v>
       </c>
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
       <c r="I43" s="3">
         <v>249.71</v>
       </c>
+      <c r="J43" s="3">
+        <v>200</v>
+      </c>
       <c r="L43" s="3">
         <v>6</v>
       </c>
@@ -2170,8 +2512,14 @@
       <c r="R43" s="3">
         <v>15.16</v>
       </c>
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
       <c r="T43" s="3">
         <v>138.19999999999999</v>
+      </c>
+      <c r="U43" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -2214,9 +2562,15 @@
       <c r="R44" s="3">
         <v>28.23</v>
       </c>
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
       <c r="T44" s="3">
         <v>273.27</v>
       </c>
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="3">
@@ -2258,8 +2612,14 @@
       <c r="R45" s="3">
         <v>27.06</v>
       </c>
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
       <c r="T45" s="3">
         <v>272.83</v>
+      </c>
+      <c r="U45" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -2284,9 +2644,15 @@
       <c r="G46" s="3">
         <v>22.12</v>
       </c>
+      <c r="H46" s="3">
+        <v>200</v>
+      </c>
       <c r="I46" s="3">
         <v>327.32</v>
       </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
       <c r="L46" s="3">
         <v>9</v>
       </c>
@@ -2308,9 +2674,15 @@
       <c r="R46" s="3">
         <v>21.95</v>
       </c>
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
       <c r="T46" s="3">
         <v>333.61</v>
       </c>
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="3">
@@ -2334,9 +2706,15 @@
       <c r="G47" s="3">
         <v>22.34</v>
       </c>
+      <c r="H47" s="3">
+        <v>200</v>
+      </c>
       <c r="I47" s="3">
         <v>304.88</v>
       </c>
+      <c r="J47" s="3">
+        <v>200</v>
+      </c>
       <c r="L47" s="3">
         <v>10</v>
       </c>
@@ -2358,9 +2736,15 @@
       <c r="R47" s="3">
         <v>17.079999999999998</v>
       </c>
+      <c r="S47" s="3">
+        <v>200</v>
+      </c>
       <c r="T47" s="3">
         <v>321.39</v>
       </c>
+      <c r="U47" s="3">
+        <v>200</v>
+      </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="3">
@@ -2402,11 +2786,17 @@
       <c r="R48" s="3">
         <v>21.81</v>
       </c>
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
       <c r="T48" s="3">
         <v>441.17</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="3">
         <v>12</v>
       </c>
@@ -2446,11 +2836,17 @@
       <c r="R49" s="3">
         <v>21.7</v>
       </c>
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
       <c r="T49" s="3">
         <v>426.87</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="3">
         <v>13</v>
       </c>
@@ -2472,9 +2868,15 @@
       <c r="G50" s="3">
         <v>14.09</v>
       </c>
+      <c r="H50" s="3">
+        <v>200</v>
+      </c>
       <c r="I50" s="3">
         <v>150.85</v>
       </c>
+      <c r="J50" s="3">
+        <v>200</v>
+      </c>
       <c r="L50" s="3">
         <v>13</v>
       </c>
@@ -2496,11 +2898,17 @@
       <c r="R50" s="3">
         <v>13.15</v>
       </c>
+      <c r="S50" s="3">
+        <v>200</v>
+      </c>
       <c r="T50" s="3">
         <v>122.59</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="3">
         <v>14</v>
       </c>
@@ -2522,9 +2930,15 @@
       <c r="G51" s="3">
         <v>14.63</v>
       </c>
+      <c r="H51" s="3">
+        <v>200</v>
+      </c>
       <c r="I51" s="3">
         <v>141.91999999999999</v>
       </c>
+      <c r="J51" s="3">
+        <v>200</v>
+      </c>
       <c r="L51" s="3">
         <v>14</v>
       </c>
@@ -2546,11 +2960,17 @@
       <c r="R51" s="3">
         <v>12.65</v>
       </c>
+      <c r="S51" s="3">
+        <v>200</v>
+      </c>
       <c r="T51" s="3">
         <v>122.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="3">
         <v>15</v>
       </c>
@@ -2590,11 +3010,17 @@
       <c r="R52" s="3">
         <v>17.239999999999998</v>
       </c>
+      <c r="S52" s="3">
+        <v>200</v>
+      </c>
       <c r="T52" s="3">
         <v>170.64</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="3">
         <v>16</v>
       </c>
@@ -2634,11 +3060,17 @@
       <c r="R53" s="3">
         <v>16.559999999999999</v>
       </c>
+      <c r="S53" s="3">
+        <v>200</v>
+      </c>
       <c r="T53" s="3">
         <v>164.95</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="3">
         <v>17</v>
       </c>
@@ -2660,9 +3092,15 @@
       <c r="G54" s="3">
         <v>36.22</v>
       </c>
+      <c r="H54" s="3">
+        <v>200</v>
+      </c>
       <c r="I54" s="3">
         <v>599.85</v>
       </c>
+      <c r="J54" s="3">
+        <v>200</v>
+      </c>
       <c r="L54" s="3">
         <v>17</v>
       </c>
@@ -2684,11 +3122,17 @@
       <c r="R54" s="3">
         <v>19.59</v>
       </c>
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
       <c r="T54" s="3">
         <v>364.43</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="3">
         <v>18</v>
       </c>
@@ -2710,9 +3154,15 @@
       <c r="G55" s="3">
         <v>34.340000000000003</v>
       </c>
+      <c r="H55" s="3">
+        <v>200</v>
+      </c>
       <c r="I55" s="3">
         <v>574.41</v>
       </c>
+      <c r="J55" s="3">
+        <v>200</v>
+      </c>
       <c r="L55" s="3">
         <v>18</v>
       </c>
@@ -2734,11 +3184,17 @@
       <c r="R55" s="3">
         <v>18.940000000000001</v>
       </c>
+      <c r="S55" s="3">
+        <v>200</v>
+      </c>
       <c r="T55" s="3">
         <v>352.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="3">
         <v>19</v>
       </c>
@@ -2778,11 +3234,17 @@
       <c r="R56" s="3">
         <v>87.3</v>
       </c>
+      <c r="S56" s="3">
+        <v>200</v>
+      </c>
       <c r="T56" s="3">
         <v>4273.96</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="3">
         <v>20</v>
       </c>
@@ -2822,11 +3284,17 @@
       <c r="R57" s="3">
         <v>86.66</v>
       </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
       <c r="T57" s="3">
         <v>3869.77</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="3">
         <v>21</v>
       </c>
@@ -2848,9 +3316,15 @@
       <c r="G58" s="3">
         <v>21.17</v>
       </c>
+      <c r="H58" s="3">
+        <v>200</v>
+      </c>
       <c r="I58" s="3">
         <v>257.8</v>
       </c>
+      <c r="J58" s="3">
+        <v>200</v>
+      </c>
       <c r="L58" s="3">
         <v>21</v>
       </c>
@@ -2872,11 +3346,17 @@
       <c r="R58" s="3">
         <v>14.35</v>
       </c>
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
       <c r="T58" s="3">
         <v>140.68</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="3">
         <v>22</v>
       </c>
@@ -2898,9 +3378,15 @@
       <c r="G59" s="3">
         <v>21.7</v>
       </c>
+      <c r="H59" s="3">
+        <v>200</v>
+      </c>
       <c r="I59" s="3">
         <v>246.79</v>
       </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
       <c r="L59" s="3">
         <v>22</v>
       </c>
@@ -2922,11 +3408,17 @@
       <c r="R59" s="3">
         <v>14.23</v>
       </c>
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
       <c r="T59" s="3">
         <v>139.83000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="3">
         <v>23</v>
       </c>
@@ -2966,11 +3458,17 @@
       <c r="R60" s="3">
         <v>57.51</v>
       </c>
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
       <c r="T60" s="3">
         <v>996.47</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="3">
         <v>24</v>
       </c>
@@ -3010,11 +3508,17 @@
       <c r="R61" s="3">
         <v>53.17</v>
       </c>
+      <c r="S61" s="3">
+        <v>200</v>
+      </c>
       <c r="T61" s="3">
         <v>964.62</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="3">
         <v>25</v>
       </c>
@@ -3036,9 +3540,15 @@
       <c r="G62" s="3">
         <v>21.66</v>
       </c>
+      <c r="H62" s="3">
+        <v>200</v>
+      </c>
       <c r="I62" s="3">
         <v>335.81</v>
       </c>
+      <c r="J62" s="3">
+        <v>200</v>
+      </c>
       <c r="L62" s="3">
         <v>25</v>
       </c>
@@ -3060,11 +3570,17 @@
       <c r="R62" s="3">
         <v>17.07</v>
       </c>
+      <c r="S62" s="3">
+        <v>200</v>
+      </c>
       <c r="T62" s="3">
         <v>327.92</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="3">
         <v>26</v>
       </c>
@@ -3086,9 +3602,15 @@
       <c r="G63" s="3">
         <v>20.77</v>
       </c>
+      <c r="H63" s="3">
+        <v>200</v>
+      </c>
       <c r="I63" s="3">
         <v>311.20999999999998</v>
       </c>
+      <c r="J63" s="3">
+        <v>200</v>
+      </c>
       <c r="L63" s="3">
         <v>26</v>
       </c>
@@ -3110,11 +3632,17 @@
       <c r="R63" s="3">
         <v>17.059999999999999</v>
       </c>
+      <c r="S63" s="3">
+        <v>200</v>
+      </c>
       <c r="T63" s="3">
         <v>329.31</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="3">
         <v>27</v>
       </c>
@@ -3154,8 +3682,14 @@
       <c r="R64" s="3">
         <v>23.81</v>
       </c>
+      <c r="S64" s="3">
+        <v>200</v>
+      </c>
       <c r="T64" s="3">
         <v>441.6</v>
+      </c>
+      <c r="U64" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -3198,8 +3732,14 @@
       <c r="R65" s="3">
         <v>21.78</v>
       </c>
+      <c r="S65" s="3">
+        <v>200</v>
+      </c>
       <c r="T65" s="3">
         <v>418.4</v>
+      </c>
+      <c r="U65" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -3224,9 +3764,15 @@
       <c r="G66" s="3">
         <v>14.08</v>
       </c>
+      <c r="H66" s="3">
+        <v>200</v>
+      </c>
       <c r="I66" s="3">
         <v>152.72</v>
       </c>
+      <c r="J66" s="3">
+        <v>200</v>
+      </c>
       <c r="L66" s="3">
         <v>29</v>
       </c>
@@ -3248,8 +3794,14 @@
       <c r="R66" s="3">
         <v>12.18</v>
       </c>
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
       <c r="T66" s="3">
         <v>125.74</v>
+      </c>
+      <c r="U66" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -3274,9 +3826,15 @@
       <c r="G67" s="3">
         <v>14.33</v>
       </c>
+      <c r="H67" s="3">
+        <v>200</v>
+      </c>
       <c r="I67" s="3">
         <v>145.46</v>
       </c>
+      <c r="J67" s="3">
+        <v>200</v>
+      </c>
       <c r="L67" s="3">
         <v>30</v>
       </c>
@@ -3298,8 +3856,14 @@
       <c r="R67" s="3">
         <v>13.03</v>
       </c>
+      <c r="S67" s="3">
+        <v>200</v>
+      </c>
       <c r="T67" s="3">
         <v>123.35</v>
+      </c>
+      <c r="U67" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -3342,8 +3906,14 @@
       <c r="R68" s="3">
         <v>17.45</v>
       </c>
+      <c r="S68" s="3">
+        <v>200</v>
+      </c>
       <c r="T68" s="3">
         <v>165.99</v>
+      </c>
+      <c r="U68" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -3386,8 +3956,14 @@
       <c r="R69" s="3">
         <v>17.329999999999998</v>
       </c>
+      <c r="S69" s="3">
+        <v>200</v>
+      </c>
       <c r="T69" s="3">
         <v>164.99</v>
+      </c>
+      <c r="U69" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -3412,8 +3988,14 @@
       <c r="G70" s="3">
         <v>17.690000000000001</v>
       </c>
+      <c r="H70" s="3">
+        <v>200</v>
+      </c>
       <c r="I70" s="3">
         <v>129.56</v>
+      </c>
+      <c r="J70" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -3438,8 +4020,14 @@
       <c r="G71" s="3">
         <v>18.489999999999998</v>
       </c>
+      <c r="H71" s="3">
+        <v>200</v>
+      </c>
       <c r="I71" s="3">
         <v>127.12</v>
+      </c>
+      <c r="J71" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -3464,8 +4052,14 @@
       <c r="G72" s="3">
         <v>17.13</v>
       </c>
+      <c r="H72" s="3">
+        <v>200</v>
+      </c>
       <c r="I72" s="3">
         <v>90.81</v>
+      </c>
+      <c r="J72" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -3490,8 +4084,14 @@
       <c r="G73" s="3">
         <v>16.45</v>
       </c>
+      <c r="H73" s="3">
+        <v>200</v>
+      </c>
       <c r="I73" s="3">
         <v>91.06</v>
+      </c>
+      <c r="J73" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -3516,8 +4116,14 @@
       <c r="G74" s="3">
         <v>17.260000000000002</v>
       </c>
+      <c r="H74" s="3">
+        <v>200</v>
+      </c>
       <c r="I74" s="3">
         <v>82.11</v>
+      </c>
+      <c r="J74" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -3542,8 +4148,14 @@
       <c r="G75" s="3">
         <v>17.559999999999999</v>
       </c>
+      <c r="H75" s="3">
+        <v>200</v>
+      </c>
       <c r="I75" s="3">
         <v>81.760000000000005</v>
+      </c>
+      <c r="J75" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -3630,9 +4242,15 @@
       <c r="G80" s="3">
         <v>9.7200000000000006</v>
       </c>
+      <c r="H80" s="3">
+        <v>200</v>
+      </c>
       <c r="I80" s="3">
         <v>90.04</v>
       </c>
+      <c r="J80" s="3">
+        <v>200</v>
+      </c>
       <c r="L80" s="3">
         <v>1</v>
       </c>
@@ -3654,11 +4272,17 @@
       <c r="R80" s="3">
         <v>36.5</v>
       </c>
+      <c r="S80" s="3">
+        <v>200</v>
+      </c>
       <c r="T80" s="3">
         <v>439.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="3">
         <v>2</v>
       </c>
@@ -3680,9 +4304,15 @@
       <c r="G81" s="3">
         <v>9.2200000000000006</v>
       </c>
+      <c r="H81" s="3">
+        <v>200</v>
+      </c>
       <c r="I81" s="3">
         <v>91.85</v>
       </c>
+      <c r="J81" s="3">
+        <v>200</v>
+      </c>
       <c r="L81" s="3">
         <v>2</v>
       </c>
@@ -3704,11 +4334,17 @@
       <c r="R81" s="3">
         <v>31.57</v>
       </c>
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
       <c r="T81" s="3">
         <v>290.08</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="3">
         <v>3</v>
       </c>
@@ -3730,9 +4366,15 @@
       <c r="G82" s="3">
         <v>27.9</v>
       </c>
+      <c r="H82" s="3">
+        <v>200</v>
+      </c>
       <c r="I82" s="3">
         <v>288.48</v>
       </c>
+      <c r="J82" s="3">
+        <v>200</v>
+      </c>
       <c r="L82" s="3">
         <v>3</v>
       </c>
@@ -3754,8 +4396,11 @@
       <c r="R82" s="3">
         <v>241.63</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="S82" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="3">
         <v>4</v>
       </c>
@@ -3777,9 +4422,15 @@
       <c r="G83" s="3">
         <v>28.85</v>
       </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
       <c r="I83" s="3">
         <v>276.27999999999997</v>
       </c>
+      <c r="J83" s="3">
+        <v>200</v>
+      </c>
       <c r="L83" s="3">
         <v>4</v>
       </c>
@@ -3801,8 +4452,11 @@
       <c r="R83" s="3">
         <v>211.92</v>
       </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="3">
         <v>5</v>
       </c>
@@ -3824,9 +4478,15 @@
       <c r="G84" s="3">
         <v>6.15</v>
       </c>
+      <c r="H84" s="3">
+        <v>200</v>
+      </c>
       <c r="I84" s="3">
         <v>58.38</v>
       </c>
+      <c r="J84" s="3">
+        <v>200</v>
+      </c>
       <c r="L84" s="3">
         <v>5</v>
       </c>
@@ -3848,11 +4508,17 @@
       <c r="R84" s="3">
         <v>19.71</v>
       </c>
+      <c r="S84" s="3">
+        <v>200</v>
+      </c>
       <c r="T84" s="3">
         <v>214.58</v>
       </c>
-    </row>
-    <row r="85" spans="1:20">
+      <c r="U84" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="3">
         <v>6</v>
       </c>
@@ -3874,9 +4540,15 @@
       <c r="G85" s="3">
         <v>6.3</v>
       </c>
+      <c r="H85" s="3">
+        <v>200</v>
+      </c>
       <c r="I85" s="3">
         <v>58.12</v>
       </c>
+      <c r="J85" s="3">
+        <v>200</v>
+      </c>
       <c r="L85" s="3">
         <v>6</v>
       </c>
@@ -3898,11 +4570,17 @@
       <c r="R85" s="3">
         <v>18.18</v>
       </c>
+      <c r="S85" s="3">
+        <v>200</v>
+      </c>
       <c r="T85" s="3">
         <v>159.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="U85" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="3">
         <v>7</v>
       </c>
@@ -3924,9 +4602,15 @@
       <c r="G86" s="3">
         <v>17.28</v>
       </c>
+      <c r="H86" s="3">
+        <v>200</v>
+      </c>
       <c r="I86" s="3">
         <v>178.31</v>
       </c>
+      <c r="J86" s="3">
+        <v>200</v>
+      </c>
       <c r="L86" s="3">
         <v>7</v>
       </c>
@@ -3948,8 +4632,11 @@
       <c r="R86" s="3">
         <v>115.23</v>
       </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="S86" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="3">
         <v>8</v>
       </c>
@@ -3971,9 +4658,15 @@
       <c r="G87" s="3">
         <v>18.46</v>
       </c>
+      <c r="H87" s="3">
+        <v>200</v>
+      </c>
       <c r="I87" s="3">
         <v>176.24</v>
       </c>
+      <c r="J87" s="3">
+        <v>200</v>
+      </c>
       <c r="L87" s="3">
         <v>8</v>
       </c>
@@ -3995,8 +4688,11 @@
       <c r="R87" s="3">
         <v>107.39</v>
       </c>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="S87" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="3">
         <v>9</v>
       </c>
@@ -4018,9 +4714,15 @@
       <c r="G88" s="3">
         <v>5.67</v>
       </c>
+      <c r="H88" s="3">
+        <v>200</v>
+      </c>
       <c r="I88" s="3">
         <v>61.15</v>
       </c>
+      <c r="J88" s="3">
+        <v>200</v>
+      </c>
       <c r="L88" s="3">
         <v>9</v>
       </c>
@@ -4042,11 +4744,17 @@
       <c r="R88" s="3">
         <v>14.49</v>
       </c>
+      <c r="S88" s="3">
+        <v>200</v>
+      </c>
       <c r="T88" s="3">
         <v>133.09</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="U88" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="3">
         <v>10</v>
       </c>
@@ -4068,9 +4776,15 @@
       <c r="G89" s="3">
         <v>5.47</v>
       </c>
+      <c r="H89" s="3">
+        <v>200</v>
+      </c>
       <c r="I89" s="3">
         <v>60.03</v>
       </c>
+      <c r="J89" s="3">
+        <v>200</v>
+      </c>
       <c r="L89" s="3">
         <v>10</v>
       </c>
@@ -4092,11 +4806,17 @@
       <c r="R89" s="3">
         <v>13.22</v>
       </c>
+      <c r="S89" s="3">
+        <v>200</v>
+      </c>
       <c r="T89" s="3">
         <v>103.52</v>
       </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="3">
         <v>11</v>
       </c>
@@ -4118,9 +4838,15 @@
       <c r="G90" s="3">
         <v>10.37</v>
       </c>
+      <c r="H90" s="3">
+        <v>200</v>
+      </c>
       <c r="I90" s="3">
         <v>131.63999999999999</v>
       </c>
+      <c r="J90" s="3">
+        <v>200</v>
+      </c>
       <c r="L90" s="3">
         <v>11</v>
       </c>
@@ -4142,8 +4868,11 @@
       <c r="R90" s="3">
         <v>31.77</v>
       </c>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="S90" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="3">
         <v>12</v>
       </c>
@@ -4165,9 +4894,15 @@
       <c r="G91" s="3">
         <v>10.01</v>
       </c>
+      <c r="H91" s="3">
+        <v>200</v>
+      </c>
       <c r="I91" s="3">
         <v>121.95</v>
       </c>
+      <c r="J91" s="3">
+        <v>200</v>
+      </c>
       <c r="L91" s="3">
         <v>12</v>
       </c>
@@ -4189,8 +4924,11 @@
       <c r="R91" s="3">
         <v>30.52</v>
       </c>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="S91" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="3">
         <v>13</v>
       </c>
@@ -4212,9 +4950,15 @@
       <c r="G92" s="3">
         <v>4.3600000000000003</v>
       </c>
+      <c r="H92" s="3">
+        <v>200</v>
+      </c>
       <c r="I92" s="3">
         <v>37.950000000000003</v>
       </c>
+      <c r="J92" s="3">
+        <v>200</v>
+      </c>
       <c r="L92" s="3">
         <v>13</v>
       </c>
@@ -4236,11 +4980,17 @@
       <c r="R92" s="3">
         <v>9.24</v>
       </c>
+      <c r="S92" s="3">
+        <v>200</v>
+      </c>
       <c r="T92" s="3">
         <v>77.290000000000006</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="3">
         <v>14</v>
       </c>
@@ -4262,9 +5012,15 @@
       <c r="G93" s="3">
         <v>4.4400000000000004</v>
       </c>
+      <c r="H93" s="3">
+        <v>200</v>
+      </c>
       <c r="I93" s="3">
         <v>39.03</v>
       </c>
+      <c r="J93" s="3">
+        <v>200</v>
+      </c>
       <c r="L93" s="3">
         <v>14</v>
       </c>
@@ -4286,11 +5042,17 @@
       <c r="R93" s="3">
         <v>8.4499999999999993</v>
       </c>
+      <c r="S93" s="3">
+        <v>200</v>
+      </c>
       <c r="T93" s="3">
         <v>65.97</v>
       </c>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="U93" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="3">
         <v>15</v>
       </c>
@@ -4312,9 +5074,15 @@
       <c r="G94" s="3">
         <v>8.0500000000000007</v>
       </c>
+      <c r="H94" s="3">
+        <v>200</v>
+      </c>
       <c r="I94" s="3">
         <v>77.58</v>
       </c>
+      <c r="J94" s="3">
+        <v>200</v>
+      </c>
       <c r="L94" s="3">
         <v>15</v>
       </c>
@@ -4336,8 +5104,11 @@
       <c r="R94" s="3">
         <v>20.010000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="S94" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="3">
         <v>16</v>
       </c>
@@ -4359,9 +5130,15 @@
       <c r="G95" s="3">
         <v>7.99</v>
       </c>
+      <c r="H95" s="3">
+        <v>200</v>
+      </c>
       <c r="I95" s="3">
         <v>76.239999999999995</v>
       </c>
+      <c r="J95" s="3">
+        <v>200</v>
+      </c>
       <c r="L95" s="3">
         <v>16</v>
       </c>
@@ -4383,8 +5160,11 @@
       <c r="R95" s="3">
         <v>20.07</v>
       </c>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="S95" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" s="3">
         <v>17</v>
       </c>
@@ -4406,9 +5186,15 @@
       <c r="G96" s="3">
         <v>9.52</v>
       </c>
+      <c r="H96" s="3">
+        <v>200</v>
+      </c>
       <c r="I96" s="3">
         <v>92</v>
       </c>
+      <c r="J96" s="3">
+        <v>200</v>
+      </c>
       <c r="L96" s="3">
         <v>17</v>
       </c>
@@ -4430,11 +5216,17 @@
       <c r="R96" s="3">
         <v>35.380000000000003</v>
       </c>
+      <c r="S96" s="3">
+        <v>200</v>
+      </c>
       <c r="T96" s="3">
         <v>437.45</v>
       </c>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="U96" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" s="3">
         <v>18</v>
       </c>
@@ -4456,9 +5248,15 @@
       <c r="G97" s="3">
         <v>9.1999999999999993</v>
       </c>
+      <c r="H97" s="3">
+        <v>200</v>
+      </c>
       <c r="I97" s="3">
         <v>88.34</v>
       </c>
+      <c r="J97" s="3">
+        <v>200</v>
+      </c>
       <c r="L97" s="3">
         <v>18</v>
       </c>
@@ -4480,11 +5278,17 @@
       <c r="R97" s="3">
         <v>31.73</v>
       </c>
+      <c r="S97" s="3">
+        <v>200</v>
+      </c>
       <c r="T97" s="3">
         <v>291.14</v>
       </c>
-    </row>
-    <row r="98" spans="1:20">
+      <c r="U97" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" s="3">
         <v>19</v>
       </c>
@@ -4506,9 +5310,15 @@
       <c r="G98" s="3">
         <v>41.87</v>
       </c>
+      <c r="H98" s="3">
+        <v>200</v>
+      </c>
       <c r="I98" s="3">
         <v>442.8</v>
       </c>
+      <c r="J98" s="3">
+        <v>200</v>
+      </c>
       <c r="L98" s="3">
         <v>19</v>
       </c>
@@ -4528,7 +5338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:21">
       <c r="A99" s="3">
         <v>20</v>
       </c>
@@ -4550,9 +5360,15 @@
       <c r="G99" s="3">
         <v>47.97</v>
       </c>
+      <c r="H99" s="3">
+        <v>200</v>
+      </c>
       <c r="I99" s="3">
         <v>561.61</v>
       </c>
+      <c r="J99" s="3">
+        <v>200</v>
+      </c>
       <c r="L99" s="3">
         <v>20</v>
       </c>
@@ -4572,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:21">
       <c r="A100" s="3">
         <v>21</v>
       </c>
@@ -4594,9 +5410,15 @@
       <c r="G100" s="3">
         <v>6.57</v>
       </c>
+      <c r="H100" s="3">
+        <v>200</v>
+      </c>
       <c r="I100" s="3">
         <v>57.8</v>
       </c>
+      <c r="J100" s="3">
+        <v>200</v>
+      </c>
       <c r="L100" s="3">
         <v>21</v>
       </c>
@@ -4618,11 +5440,17 @@
       <c r="R100" s="3">
         <v>20.190000000000001</v>
       </c>
+      <c r="S100" s="3">
+        <v>200</v>
+      </c>
       <c r="T100" s="3">
         <v>216.04</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="U100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101" s="3">
         <v>22</v>
       </c>
@@ -4644,9 +5472,15 @@
       <c r="G101" s="3">
         <v>6.33</v>
       </c>
+      <c r="H101" s="3">
+        <v>200</v>
+      </c>
       <c r="I101" s="3">
         <v>56.08</v>
       </c>
+      <c r="J101" s="3">
+        <v>200</v>
+      </c>
       <c r="L101" s="3">
         <v>22</v>
       </c>
@@ -4668,11 +5502,17 @@
       <c r="R101" s="3">
         <v>18.43</v>
       </c>
+      <c r="S101" s="3">
+        <v>200</v>
+      </c>
       <c r="T101" s="3">
         <v>160.82</v>
       </c>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="U101" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102" s="3">
         <v>23</v>
       </c>
@@ -4694,9 +5534,15 @@
       <c r="G102" s="3">
         <v>25.78</v>
       </c>
+      <c r="H102" s="3">
+        <v>200</v>
+      </c>
       <c r="I102" s="3">
         <v>243.95</v>
       </c>
+      <c r="J102" s="3">
+        <v>200</v>
+      </c>
       <c r="L102" s="3">
         <v>23</v>
       </c>
@@ -4716,7 +5562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:21">
       <c r="A103" s="3">
         <v>24</v>
       </c>
@@ -4738,9 +5584,15 @@
       <c r="G103" s="3">
         <v>29.71</v>
       </c>
+      <c r="H103" s="3">
+        <v>200</v>
+      </c>
       <c r="I103" s="3">
         <v>300.64</v>
       </c>
+      <c r="J103" s="3">
+        <v>200</v>
+      </c>
       <c r="L103" s="3">
         <v>24</v>
       </c>
@@ -4760,7 +5612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:21">
       <c r="A104" s="3">
         <v>25</v>
       </c>
@@ -4782,9 +5634,15 @@
       <c r="G104" s="3">
         <v>5.63</v>
       </c>
+      <c r="H104" s="3">
+        <v>200</v>
+      </c>
       <c r="I104" s="3">
         <v>60.24</v>
       </c>
+      <c r="J104" s="3">
+        <v>200</v>
+      </c>
       <c r="L104" s="3">
         <v>25</v>
       </c>
@@ -4806,11 +5664,17 @@
       <c r="R104" s="3">
         <v>14.66</v>
       </c>
+      <c r="S104" s="3">
+        <v>200</v>
+      </c>
       <c r="T104" s="3">
         <v>132.86000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="U104" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105" s="3">
         <v>26</v>
       </c>
@@ -4832,9 +5696,15 @@
       <c r="G105" s="3">
         <v>5.98</v>
       </c>
+      <c r="H105" s="3">
+        <v>200</v>
+      </c>
       <c r="I105" s="3">
         <v>57.63</v>
       </c>
+      <c r="J105" s="3">
+        <v>200</v>
+      </c>
       <c r="L105" s="3">
         <v>26</v>
       </c>
@@ -4856,11 +5726,17 @@
       <c r="R105" s="3">
         <v>13.36</v>
       </c>
+      <c r="S105" s="3">
+        <v>200</v>
+      </c>
       <c r="T105" s="3">
         <v>103.99</v>
       </c>
-    </row>
-    <row r="106" spans="1:20">
+      <c r="U105" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106" s="3">
         <v>27</v>
       </c>
@@ -4882,9 +5758,15 @@
       <c r="G106" s="3">
         <v>10.41</v>
       </c>
+      <c r="H106" s="3">
+        <v>200</v>
+      </c>
       <c r="I106" s="3">
         <v>131.15</v>
       </c>
+      <c r="J106" s="3">
+        <v>200</v>
+      </c>
       <c r="L106" s="3">
         <v>27</v>
       </c>
@@ -4906,8 +5788,11 @@
       <c r="R106" s="3">
         <v>32.049999999999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:20">
+      <c r="S106" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107" s="3">
         <v>28</v>
       </c>
@@ -4929,9 +5814,15 @@
       <c r="G107" s="3">
         <v>10.31</v>
       </c>
+      <c r="H107" s="3">
+        <v>200</v>
+      </c>
       <c r="I107" s="3">
         <v>119.62</v>
       </c>
+      <c r="J107" s="3">
+        <v>200</v>
+      </c>
       <c r="L107" s="3">
         <v>28</v>
       </c>
@@ -4953,8 +5844,11 @@
       <c r="R107" s="3">
         <v>32.67</v>
       </c>
-    </row>
-    <row r="108" spans="1:20">
+      <c r="S107" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108" s="3">
         <v>29</v>
       </c>
@@ -4976,9 +5870,15 @@
       <c r="G108" s="3">
         <v>4.47</v>
       </c>
+      <c r="H108" s="3">
+        <v>200</v>
+      </c>
       <c r="I108" s="3">
         <v>38.89</v>
       </c>
+      <c r="J108" s="3">
+        <v>200</v>
+      </c>
       <c r="L108" s="3">
         <v>29</v>
       </c>
@@ -5000,11 +5900,17 @@
       <c r="R108" s="3">
         <v>9.1199999999999992</v>
       </c>
+      <c r="S108" s="3">
+        <v>200</v>
+      </c>
       <c r="T108" s="3">
         <v>77.819999999999993</v>
       </c>
-    </row>
-    <row r="109" spans="1:20">
+      <c r="U108" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109" s="3">
         <v>30</v>
       </c>
@@ -5026,9 +5932,15 @@
       <c r="G109" s="3">
         <v>4.4800000000000004</v>
       </c>
+      <c r="H109" s="3">
+        <v>200</v>
+      </c>
       <c r="I109" s="3">
         <v>38.85</v>
       </c>
+      <c r="J109" s="3">
+        <v>200</v>
+      </c>
       <c r="L109" s="3">
         <v>30</v>
       </c>
@@ -5050,11 +5962,17 @@
       <c r="R109" s="3">
         <v>8.4700000000000006</v>
       </c>
+      <c r="S109" s="3">
+        <v>200</v>
+      </c>
       <c r="T109" s="3">
         <v>65.84</v>
       </c>
-    </row>
-    <row r="110" spans="1:20">
+      <c r="U109" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110" s="3">
         <v>31</v>
       </c>
@@ -5076,9 +5994,15 @@
       <c r="G110" s="3">
         <v>7.94</v>
       </c>
+      <c r="H110" s="3">
+        <v>200</v>
+      </c>
       <c r="I110" s="3">
         <v>77.91</v>
       </c>
+      <c r="J110" s="3">
+        <v>200</v>
+      </c>
       <c r="L110" s="3">
         <v>31</v>
       </c>
@@ -5100,8 +6024,11 @@
       <c r="R110" s="3">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:20">
+      <c r="S110" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" s="3">
         <v>32</v>
       </c>
@@ -5123,9 +6050,15 @@
       <c r="G111" s="3">
         <v>8.06</v>
       </c>
+      <c r="H111" s="3">
+        <v>200</v>
+      </c>
       <c r="I111" s="3">
         <v>76.209999999999994</v>
       </c>
+      <c r="J111" s="3">
+        <v>200</v>
+      </c>
       <c r="L111" s="3">
         <v>32</v>
       </c>
@@ -5146,6 +6079,9 @@
       </c>
       <c r="R111" s="3">
         <v>19.579999999999998</v>
+      </c>
+      <c r="S111" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5202,9 +6138,15 @@
       <c r="G116" s="3">
         <v>3.95</v>
       </c>
+      <c r="H116" s="3">
+        <v>65</v>
+      </c>
       <c r="I116" s="3">
         <v>31.52</v>
       </c>
+      <c r="J116" s="3">
+        <v>65</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="3">
@@ -5228,8 +6170,14 @@
       <c r="G117" s="3">
         <v>3.9</v>
       </c>
+      <c r="H117" s="3">
+        <v>65</v>
+      </c>
       <c r="I117" s="3">
         <v>34.74</v>
+      </c>
+      <c r="J117" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5254,9 +6202,15 @@
       <c r="G118" s="3">
         <v>24.41</v>
       </c>
+      <c r="H118" s="3">
+        <v>65</v>
+      </c>
       <c r="I118" s="3">
         <v>220.78</v>
       </c>
+      <c r="J118" s="3">
+        <v>65</v>
+      </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="3">
@@ -5280,8 +6234,14 @@
       <c r="G119" s="3">
         <v>23.03</v>
       </c>
+      <c r="H119" s="3">
+        <v>65</v>
+      </c>
       <c r="I119" s="3">
         <v>180.42</v>
+      </c>
+      <c r="J119" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5306,8 +6266,14 @@
       <c r="G120" s="3">
         <v>2.81</v>
       </c>
+      <c r="H120" s="3">
+        <v>65</v>
+      </c>
       <c r="I120" s="3">
         <v>21.08</v>
+      </c>
+      <c r="J120" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5332,8 +6298,14 @@
       <c r="G121" s="3">
         <v>2.83</v>
       </c>
+      <c r="H121" s="3">
+        <v>65</v>
+      </c>
       <c r="I121" s="3">
         <v>21.36</v>
+      </c>
+      <c r="J121" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5358,9 +6330,15 @@
       <c r="G122" s="3">
         <v>13.89</v>
       </c>
+      <c r="H122" s="3">
+        <v>65</v>
+      </c>
       <c r="I122" s="3">
         <v>119.77</v>
       </c>
+      <c r="J122" s="3">
+        <v>65</v>
+      </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="3">
@@ -5384,8 +6362,14 @@
       <c r="G123" s="3">
         <v>13.27</v>
       </c>
+      <c r="H123" s="3">
+        <v>65</v>
+      </c>
       <c r="I123" s="3">
         <v>100.67</v>
+      </c>
+      <c r="J123" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5410,9 +6394,15 @@
       <c r="G124" s="3">
         <v>5.12</v>
       </c>
+      <c r="H124" s="3">
+        <v>121</v>
+      </c>
       <c r="I124" s="3">
         <v>44.05</v>
       </c>
+      <c r="J124" s="3">
+        <v>121</v>
+      </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="3">
@@ -5436,9 +6426,15 @@
       <c r="G125" s="3">
         <v>4.8600000000000003</v>
       </c>
+      <c r="H125" s="3">
+        <v>120</v>
+      </c>
       <c r="I125" s="3">
         <v>40.29</v>
       </c>
+      <c r="J125" s="3">
+        <v>120</v>
+      </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="3">
@@ -5462,8 +6458,14 @@
       <c r="G126" s="3">
         <v>30.21</v>
       </c>
+      <c r="H126" s="3">
+        <v>200</v>
+      </c>
       <c r="I126" s="3">
         <v>336.38</v>
+      </c>
+      <c r="J126" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5488,8 +6490,14 @@
       <c r="G127" s="3">
         <v>26.65</v>
       </c>
+      <c r="H127" s="3">
+        <v>200</v>
+      </c>
       <c r="I127" s="3">
         <v>266.58</v>
+      </c>
+      <c r="J127" s="3">
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5514,11 +6522,17 @@
       <c r="G128" s="3">
         <v>3.7</v>
       </c>
+      <c r="H128" s="3">
+        <v>121</v>
+      </c>
       <c r="I128" s="3">
         <v>26.13</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="3">
         <v>14</v>
       </c>
@@ -5540,11 +6554,17 @@
       <c r="G129" s="3">
         <v>3.56</v>
       </c>
+      <c r="H129" s="3">
+        <v>120</v>
+      </c>
       <c r="I129" s="3">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="J129" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="3">
         <v>15</v>
       </c>
@@ -5566,11 +6586,17 @@
       <c r="G130" s="3">
         <v>17.11</v>
       </c>
+      <c r="H130" s="3">
+        <v>200</v>
+      </c>
       <c r="I130" s="3">
         <v>175.47</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
+      <c r="J130" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="3">
         <v>16</v>
       </c>
@@ -5592,11 +6618,17 @@
       <c r="G131" s="3">
         <v>17.079999999999998</v>
       </c>
+      <c r="H131" s="3">
+        <v>200</v>
+      </c>
       <c r="I131" s="3">
         <v>150.93</v>
       </c>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="J131" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="3">
         <v>17</v>
       </c>
@@ -5618,11 +6650,17 @@
       <c r="G132" s="3">
         <v>4.8600000000000003</v>
       </c>
+      <c r="H132" s="3">
+        <v>65</v>
+      </c>
       <c r="I132" s="3">
         <v>32.26</v>
       </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="J132" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="3">
         <v>18</v>
       </c>
@@ -5644,11 +6682,17 @@
       <c r="G133" s="3">
         <v>4.18</v>
       </c>
+      <c r="H133" s="3">
+        <v>65</v>
+      </c>
       <c r="I133" s="3">
         <v>33.76</v>
       </c>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="J133" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="3">
         <v>19</v>
       </c>
@@ -5670,11 +6714,17 @@
       <c r="G134" s="3">
         <v>78.02</v>
       </c>
+      <c r="H134" s="3">
+        <v>200</v>
+      </c>
       <c r="I134" s="3">
         <v>892.94</v>
       </c>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="J134" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="3">
         <v>20</v>
       </c>
@@ -5696,11 +6746,17 @@
       <c r="G135" s="3">
         <v>71.97</v>
       </c>
+      <c r="H135" s="3">
+        <v>200</v>
+      </c>
       <c r="I135" s="3">
         <v>643.16999999999996</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="3">
         <v>21</v>
       </c>
@@ -5722,11 +6778,17 @@
       <c r="G136" s="3">
         <v>2.8</v>
       </c>
+      <c r="H136" s="3">
+        <v>65</v>
+      </c>
       <c r="I136" s="3">
         <v>20.85</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="3">
         <v>22</v>
       </c>
@@ -5748,11 +6810,17 @@
       <c r="G137" s="3">
         <v>2.83</v>
       </c>
+      <c r="H137" s="3">
+        <v>65</v>
+      </c>
       <c r="I137" s="3">
         <v>21.33</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="3">
         <v>23</v>
       </c>
@@ -5774,11 +6842,17 @@
       <c r="G138" s="3">
         <v>40.340000000000003</v>
       </c>
+      <c r="H138" s="3">
+        <v>200</v>
+      </c>
       <c r="I138" s="3">
         <v>325.87</v>
       </c>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="J138" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="3">
         <v>24</v>
       </c>
@@ -5800,11 +6874,17 @@
       <c r="G139" s="3">
         <v>38.81</v>
       </c>
+      <c r="H139" s="3">
+        <v>200</v>
+      </c>
       <c r="I139" s="3">
         <v>300.42</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="3">
         <v>25</v>
       </c>
@@ -5826,11 +6906,17 @@
       <c r="G140" s="3">
         <v>5.03</v>
       </c>
+      <c r="H140" s="3">
+        <v>121</v>
+      </c>
       <c r="I140" s="3">
         <v>42.71</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="3">
         <v>26</v>
       </c>
@@ -5852,11 +6938,17 @@
       <c r="G141" s="3">
         <v>4.5999999999999996</v>
       </c>
+      <c r="H141" s="3">
+        <v>120</v>
+      </c>
       <c r="I141" s="3">
         <v>39.83</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="3">
         <v>27</v>
       </c>
@@ -5878,11 +6970,17 @@
       <c r="G142" s="3">
         <v>28.84</v>
       </c>
+      <c r="H142" s="3">
+        <v>200</v>
+      </c>
       <c r="I142" s="3">
         <v>331.38</v>
       </c>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="J142" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="3">
         <v>28</v>
       </c>
@@ -5904,11 +7002,17 @@
       <c r="G143" s="3">
         <v>27.47</v>
       </c>
+      <c r="H143" s="3">
+        <v>200</v>
+      </c>
       <c r="I143" s="3">
         <v>274.45</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="J143" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="3">
         <v>29</v>
       </c>
@@ -5930,11 +7034,17 @@
       <c r="G144" s="3">
         <v>3.62</v>
       </c>
+      <c r="H144" s="3">
+        <v>121</v>
+      </c>
       <c r="I144" s="3">
         <v>27.16</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="3">
         <v>30</v>
       </c>
@@ -5956,11 +7066,17 @@
       <c r="G145" s="3">
         <v>4.46</v>
       </c>
+      <c r="H145" s="3">
+        <v>120</v>
+      </c>
       <c r="I145" s="3">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="3">
         <v>31</v>
       </c>
@@ -5982,11 +7098,17 @@
       <c r="G146" s="3">
         <v>17.989999999999998</v>
       </c>
+      <c r="H146" s="3">
+        <v>200</v>
+      </c>
       <c r="I146" s="3">
         <v>168.86</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="3">
         <v>32</v>
       </c>
@@ -6008,11 +7130,17 @@
       <c r="G147" s="3">
         <v>17.66</v>
       </c>
+      <c r="H147" s="3">
+        <v>200</v>
+      </c>
       <c r="I147" s="3">
         <v>146.69</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J147" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="4"/>
     </row>
   </sheetData>
@@ -6026,7 +7154,7 @@
   <dimension ref="A1:ALX69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="U46" sqref="U46:U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
@@ -6135,9 +7263,15 @@
       <c r="G2" s="1">
         <v>46.38</v>
       </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
       <c r="I2" s="1">
         <v>98.39</v>
       </c>
+      <c r="J2" s="1">
+        <v>200</v>
+      </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
@@ -6159,10 +7293,15 @@
       <c r="R2" s="1">
         <v>36.090000000000003</v>
       </c>
+      <c r="S2" s="1">
+        <v>50</v>
+      </c>
       <c r="T2" s="1">
         <v>120.78</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="U2" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
@@ -6186,9 +7325,15 @@
       <c r="G3" s="1">
         <v>46.49</v>
       </c>
+      <c r="H3" s="1">
+        <v>200</v>
+      </c>
       <c r="I3" s="1">
         <v>96.5</v>
       </c>
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
@@ -6210,10 +7355,15 @@
       <c r="R3" s="1">
         <v>36.03</v>
       </c>
+      <c r="S3" s="1">
+        <v>50</v>
+      </c>
       <c r="T3" s="1">
         <v>120.35</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
@@ -6237,9 +7387,15 @@
       <c r="G4" s="1">
         <v>72.680000000000007</v>
       </c>
+      <c r="H4" s="1">
+        <v>200</v>
+      </c>
       <c r="I4" s="1">
         <v>193.03</v>
       </c>
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
@@ -6261,10 +7417,15 @@
       <c r="R4" s="1">
         <v>158.99</v>
       </c>
+      <c r="S4" s="1">
+        <v>50</v>
+      </c>
       <c r="T4" s="1">
         <v>516.49</v>
       </c>
-      <c r="U4" s="1"/>
+      <c r="U4" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
@@ -6288,9 +7449,15 @@
       <c r="G5" s="1">
         <v>70.67</v>
       </c>
+      <c r="H5" s="1">
+        <v>200</v>
+      </c>
       <c r="I5" s="1">
         <v>177.64</v>
       </c>
+      <c r="J5" s="1">
+        <v>200</v>
+      </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
@@ -6312,10 +7479,15 @@
       <c r="R5" s="1">
         <v>158.79</v>
       </c>
+      <c r="S5" s="1">
+        <v>50</v>
+      </c>
       <c r="T5" s="1">
         <v>496.95</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
@@ -6339,9 +7511,15 @@
       <c r="G6" s="1">
         <v>35.01</v>
       </c>
+      <c r="H6" s="1">
+        <v>200</v>
+      </c>
       <c r="I6" s="1">
         <v>51.94</v>
       </c>
+      <c r="J6" s="1">
+        <v>200</v>
+      </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
@@ -6363,10 +7541,15 @@
       <c r="R6" s="1">
         <v>31.68</v>
       </c>
+      <c r="S6" s="1">
+        <v>50</v>
+      </c>
       <c r="T6" s="1">
         <v>71.62</v>
       </c>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
@@ -6390,9 +7573,15 @@
       <c r="G7" s="1">
         <v>35.92</v>
       </c>
+      <c r="H7" s="1">
+        <v>200</v>
+      </c>
       <c r="I7" s="1">
         <v>50.25</v>
       </c>
+      <c r="J7" s="1">
+        <v>200</v>
+      </c>
       <c r="L7" s="1">
         <v>6</v>
       </c>
@@ -6414,10 +7603,15 @@
       <c r="R7" s="1">
         <v>31.71</v>
       </c>
+      <c r="S7" s="1">
+        <v>50</v>
+      </c>
       <c r="T7" s="1">
         <v>73.430000000000007</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
@@ -6441,9 +7635,15 @@
       <c r="G8" s="1">
         <v>56.19</v>
       </c>
+      <c r="H8" s="1">
+        <v>200</v>
+      </c>
       <c r="I8" s="1">
         <v>105.69</v>
       </c>
+      <c r="J8" s="1">
+        <v>200</v>
+      </c>
       <c r="L8" s="1">
         <v>7</v>
       </c>
@@ -6465,10 +7665,15 @@
       <c r="R8" s="1">
         <v>136.59</v>
       </c>
+      <c r="S8" s="1">
+        <v>50</v>
+      </c>
       <c r="T8" s="1">
         <v>210.61</v>
       </c>
-      <c r="U8" s="1"/>
+      <c r="U8" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
@@ -6492,9 +7697,15 @@
       <c r="G9" s="1">
         <v>57.67</v>
       </c>
+      <c r="H9" s="1">
+        <v>200</v>
+      </c>
       <c r="I9" s="1">
         <v>101.4</v>
       </c>
+      <c r="J9" s="1">
+        <v>200</v>
+      </c>
       <c r="L9" s="1">
         <v>8</v>
       </c>
@@ -6516,10 +7727,15 @@
       <c r="R9" s="1">
         <v>135.41</v>
       </c>
+      <c r="S9" s="1">
+        <v>50</v>
+      </c>
       <c r="T9" s="1">
         <v>209.43</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1">
@@ -6543,9 +7759,15 @@
       <c r="G10" s="1">
         <v>41.23</v>
       </c>
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
       <c r="I10" s="1">
         <v>85.74</v>
       </c>
+      <c r="J10" s="1">
+        <v>200</v>
+      </c>
       <c r="L10" s="1">
         <v>9</v>
       </c>
@@ -6567,10 +7789,15 @@
       <c r="R10" s="1">
         <v>28.47</v>
       </c>
+      <c r="S10" s="1">
+        <v>50</v>
+      </c>
       <c r="T10" s="1">
         <v>94.98</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
@@ -6594,9 +7821,15 @@
       <c r="G11" s="1">
         <v>41.52</v>
       </c>
+      <c r="H11" s="1">
+        <v>200</v>
+      </c>
       <c r="I11" s="1">
         <v>82.12</v>
       </c>
+      <c r="J11" s="1">
+        <v>200</v>
+      </c>
       <c r="L11" s="1">
         <v>10</v>
       </c>
@@ -6618,10 +7851,15 @@
       <c r="R11" s="1">
         <v>27.54</v>
       </c>
+      <c r="S11" s="1">
+        <v>50</v>
+      </c>
       <c r="T11" s="1">
         <v>94.37</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
@@ -6645,9 +7883,15 @@
       <c r="G12" s="1">
         <v>53.15</v>
       </c>
+      <c r="H12" s="1">
+        <v>200</v>
+      </c>
       <c r="I12" s="1">
         <v>126.15</v>
       </c>
+      <c r="J12" s="1">
+        <v>200</v>
+      </c>
       <c r="L12" s="1">
         <v>11</v>
       </c>
@@ -6669,10 +7913,15 @@
       <c r="R12" s="1">
         <v>64.34</v>
       </c>
+      <c r="S12" s="1">
+        <v>50</v>
+      </c>
       <c r="T12" s="1">
         <v>205</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
@@ -6696,9 +7945,15 @@
       <c r="G13" s="1">
         <v>52.61</v>
       </c>
+      <c r="H13" s="1">
+        <v>200</v>
+      </c>
       <c r="I13" s="1">
         <v>120.52</v>
       </c>
+      <c r="J13" s="1">
+        <v>200</v>
+      </c>
       <c r="L13" s="1">
         <v>12</v>
       </c>
@@ -6720,10 +7975,15 @@
       <c r="R13" s="1">
         <v>63.77</v>
       </c>
+      <c r="S13" s="1">
+        <v>50</v>
+      </c>
       <c r="T13" s="1">
         <v>204.34</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
@@ -6747,9 +8007,15 @@
       <c r="G14" s="1">
         <v>33.39</v>
       </c>
+      <c r="H14" s="1">
+        <v>200</v>
+      </c>
       <c r="I14" s="1">
         <v>43.96</v>
       </c>
+      <c r="J14" s="1">
+        <v>200</v>
+      </c>
       <c r="L14" s="1">
         <v>13</v>
       </c>
@@ -6771,10 +8037,15 @@
       <c r="R14" s="1">
         <v>25.01</v>
       </c>
+      <c r="S14" s="1">
+        <v>50</v>
+      </c>
       <c r="T14" s="1">
         <v>59.42</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
@@ -6798,9 +8069,15 @@
       <c r="G15" s="1">
         <v>32.380000000000003</v>
       </c>
+      <c r="H15" s="1">
+        <v>200</v>
+      </c>
       <c r="I15" s="1">
         <v>42.81</v>
       </c>
+      <c r="J15" s="1">
+        <v>200</v>
+      </c>
       <c r="L15" s="1">
         <v>14</v>
       </c>
@@ -6822,10 +8099,15 @@
       <c r="R15" s="1">
         <v>24.61</v>
       </c>
+      <c r="S15" s="1">
+        <v>50</v>
+      </c>
       <c r="T15" s="1">
         <v>59.58</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
@@ -6849,9 +8131,15 @@
       <c r="G16" s="1">
         <v>41.08</v>
       </c>
+      <c r="H16" s="1">
+        <v>200</v>
+      </c>
       <c r="I16" s="1">
         <v>63.96</v>
       </c>
+      <c r="J16" s="1">
+        <v>200</v>
+      </c>
       <c r="L16" s="1">
         <v>15</v>
       </c>
@@ -6873,10 +8161,15 @@
       <c r="R16" s="1">
         <v>53.31</v>
       </c>
+      <c r="S16" s="1">
+        <v>50</v>
+      </c>
       <c r="T16" s="1">
         <v>97.62</v>
       </c>
-      <c r="U16" s="1"/>
+      <c r="U16" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1">
@@ -6900,9 +8193,15 @@
       <c r="G17" s="1">
         <v>41.27</v>
       </c>
+      <c r="H17" s="1">
+        <v>200</v>
+      </c>
       <c r="I17" s="1">
         <v>63.51</v>
       </c>
+      <c r="J17" s="1">
+        <v>200</v>
+      </c>
       <c r="L17" s="1">
         <v>16</v>
       </c>
@@ -6924,10 +8223,15 @@
       <c r="R17" s="1">
         <v>52.92</v>
       </c>
+      <c r="S17" s="1">
+        <v>50</v>
+      </c>
       <c r="T17" s="1">
         <v>97.33</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1">
@@ -6969,10 +8273,15 @@
       <c r="R18" s="1">
         <v>36.229999999999997</v>
       </c>
+      <c r="S18" s="1">
+        <v>50</v>
+      </c>
       <c r="T18" s="1">
         <v>119.14</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1">
@@ -7014,10 +8323,15 @@
       <c r="R19" s="1">
         <v>36.82</v>
       </c>
+      <c r="S19" s="1">
+        <v>50</v>
+      </c>
       <c r="T19" s="1">
         <v>118.3</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1">
@@ -7059,10 +8373,15 @@
       <c r="R20" s="1">
         <v>232.07</v>
       </c>
+      <c r="S20" s="1">
+        <v>50</v>
+      </c>
       <c r="T20" s="1">
         <v>1049.42</v>
       </c>
-      <c r="U20" s="1"/>
+      <c r="U20" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1">
@@ -7104,10 +8423,15 @@
       <c r="R21" s="1">
         <v>324.69</v>
       </c>
+      <c r="S21" s="1">
+        <v>50</v>
+      </c>
       <c r="T21" s="1">
         <v>1719.98</v>
       </c>
-      <c r="U21" s="1"/>
+      <c r="U21" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1">
@@ -7149,10 +8473,15 @@
       <c r="R22" s="1">
         <v>30.68</v>
       </c>
+      <c r="S22" s="1">
+        <v>50</v>
+      </c>
       <c r="T22" s="1">
         <v>73.42</v>
       </c>
-      <c r="U22" s="1"/>
+      <c r="U22" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1">
@@ -7194,10 +8523,15 @@
       <c r="R23" s="1">
         <v>30.49</v>
       </c>
+      <c r="S23" s="1">
+        <v>50</v>
+      </c>
       <c r="T23" s="1">
         <v>72.400000000000006</v>
       </c>
-      <c r="U23" s="1"/>
+      <c r="U23" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1">
@@ -7239,10 +8573,15 @@
       <c r="R24" s="1">
         <v>163.56</v>
       </c>
+      <c r="S24" s="1">
+        <v>50</v>
+      </c>
       <c r="T24" s="1">
         <v>294.77</v>
       </c>
-      <c r="U24" s="1"/>
+      <c r="U24" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1">
@@ -7284,10 +8623,15 @@
       <c r="R25" s="1">
         <v>219.88</v>
       </c>
+      <c r="S25" s="1">
+        <v>50</v>
+      </c>
       <c r="T25" s="1">
         <v>409.6</v>
       </c>
-      <c r="U25" s="1"/>
+      <c r="U25" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1">
@@ -7329,10 +8673,15 @@
       <c r="R26" s="1">
         <v>27.63</v>
       </c>
+      <c r="S26" s="1">
+        <v>50</v>
+      </c>
       <c r="T26" s="1">
         <v>94.14</v>
       </c>
-      <c r="U26" s="1"/>
+      <c r="U26" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1">
@@ -7374,10 +8723,15 @@
       <c r="R27" s="1">
         <v>28.3</v>
       </c>
+      <c r="S27" s="1">
+        <v>50</v>
+      </c>
       <c r="T27" s="1">
         <v>95.3</v>
       </c>
-      <c r="U27" s="1"/>
+      <c r="U27" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1">
@@ -7419,10 +8773,15 @@
       <c r="R28" s="1">
         <v>63.38</v>
       </c>
+      <c r="S28" s="1">
+        <v>50</v>
+      </c>
       <c r="T28" s="1">
         <v>204.67</v>
       </c>
-      <c r="U28" s="1"/>
+      <c r="U28" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1">
@@ -7464,10 +8823,15 @@
       <c r="R29" s="1">
         <v>64.2</v>
       </c>
+      <c r="S29" s="1">
+        <v>50</v>
+      </c>
       <c r="T29" s="1">
         <v>203.36</v>
       </c>
-      <c r="U29" s="1"/>
+      <c r="U29" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1">
@@ -7509,10 +8873,15 @@
       <c r="R30" s="1">
         <v>25.45</v>
       </c>
+      <c r="S30" s="1">
+        <v>50</v>
+      </c>
       <c r="T30" s="1">
         <v>59.23</v>
       </c>
-      <c r="U30" s="1"/>
+      <c r="U30" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1">
@@ -7554,10 +8923,15 @@
       <c r="R31" s="1">
         <v>25.36</v>
       </c>
+      <c r="S31" s="1">
+        <v>50</v>
+      </c>
       <c r="T31" s="1">
         <v>59.79</v>
       </c>
-      <c r="U31" s="1"/>
+      <c r="U31" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1">
@@ -7599,10 +8973,15 @@
       <c r="R32" s="1">
         <v>51.87</v>
       </c>
+      <c r="S32" s="1">
+        <v>50</v>
+      </c>
       <c r="T32" s="1">
         <v>96.87</v>
       </c>
-      <c r="U32" s="1"/>
+      <c r="U32" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1">
@@ -7644,10 +9023,15 @@
       <c r="R33" s="1">
         <v>53.8</v>
       </c>
+      <c r="S33" s="1">
+        <v>50</v>
+      </c>
       <c r="T33" s="1">
         <v>96.74</v>
       </c>
-      <c r="U33" s="1"/>
+      <c r="U33" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
@@ -7733,6 +9117,9 @@
       <c r="G38" s="1">
         <v>117.5</v>
       </c>
+      <c r="H38" s="1">
+        <v>50</v>
+      </c>
       <c r="I38" s="1">
         <v>242.1</v>
       </c>
@@ -7757,10 +9144,15 @@
       <c r="R38" s="1">
         <v>10.33</v>
       </c>
+      <c r="S38" s="1">
+        <v>33</v>
+      </c>
       <c r="T38" s="1">
         <v>27.16</v>
       </c>
-      <c r="U38" s="1"/>
+      <c r="U38" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1">
@@ -7784,6 +9176,9 @@
       <c r="G39" s="1">
         <v>112.12</v>
       </c>
+      <c r="H39" s="1">
+        <v>50</v>
+      </c>
       <c r="I39" s="1">
         <v>229.38</v>
       </c>
@@ -7808,10 +9203,15 @@
       <c r="R39" s="1">
         <v>11.91</v>
       </c>
+      <c r="S39" s="1">
+        <v>33</v>
+      </c>
       <c r="T39" s="1">
         <v>30.82</v>
       </c>
-      <c r="U39" s="1"/>
+      <c r="U39" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1">
@@ -7835,6 +9235,9 @@
       <c r="G40" s="1">
         <v>462.64</v>
       </c>
+      <c r="H40" s="1">
+        <v>50</v>
+      </c>
       <c r="I40" s="1">
         <v>1027.08</v>
       </c>
@@ -7859,10 +9262,15 @@
       <c r="R40" s="1">
         <v>318.3</v>
       </c>
+      <c r="S40" s="1">
+        <v>33</v>
+      </c>
       <c r="T40" s="1">
         <v>650.01</v>
       </c>
-      <c r="U40" s="1"/>
+      <c r="U40" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1">
@@ -7886,6 +9294,9 @@
       <c r="G41" s="1">
         <v>474.72</v>
       </c>
+      <c r="H41" s="1">
+        <v>50</v>
+      </c>
       <c r="I41" s="1">
         <v>1014.68</v>
       </c>
@@ -7910,10 +9321,15 @@
       <c r="R41" s="1">
         <v>326.44</v>
       </c>
+      <c r="S41" s="1">
+        <v>33</v>
+      </c>
       <c r="T41" s="1">
         <v>674</v>
       </c>
-      <c r="U41" s="1"/>
+      <c r="U41" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1">
@@ -7937,6 +9353,9 @@
       <c r="G42" s="1">
         <v>88.55</v>
       </c>
+      <c r="H42" s="1">
+        <v>50</v>
+      </c>
       <c r="I42" s="1">
         <v>70.75</v>
       </c>
@@ -7961,10 +9380,15 @@
       <c r="R42" s="1">
         <v>7.78</v>
       </c>
+      <c r="S42" s="1">
+        <v>33</v>
+      </c>
       <c r="T42" s="1">
         <v>12.08</v>
       </c>
-      <c r="U42" s="1"/>
+      <c r="U42" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1">
@@ -7988,6 +9412,9 @@
       <c r="G43" s="1">
         <v>87.85</v>
       </c>
+      <c r="H43" s="1">
+        <v>50</v>
+      </c>
       <c r="I43" s="1">
         <v>68.33</v>
       </c>
@@ -8012,10 +9439,15 @@
       <c r="R43" s="1">
         <v>9.2799999999999994</v>
       </c>
+      <c r="S43" s="1">
+        <v>33</v>
+      </c>
       <c r="T43" s="1">
         <v>14.37</v>
       </c>
-      <c r="U43" s="1"/>
+      <c r="U43" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1">
@@ -8039,6 +9471,9 @@
       <c r="G44" s="1">
         <v>350.1</v>
       </c>
+      <c r="H44" s="1">
+        <v>50</v>
+      </c>
       <c r="I44" s="1">
         <v>303.95999999999998</v>
       </c>
@@ -8063,10 +9498,15 @@
       <c r="R44" s="1">
         <v>218.81</v>
       </c>
+      <c r="S44" s="1">
+        <v>33</v>
+      </c>
       <c r="T44" s="1">
         <v>184.77</v>
       </c>
-      <c r="U44" s="1"/>
+      <c r="U44" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1">
@@ -8090,6 +9530,9 @@
       <c r="G45" s="1">
         <v>352.53</v>
       </c>
+      <c r="H45" s="1">
+        <v>50</v>
+      </c>
       <c r="I45" s="1">
         <v>299.31</v>
       </c>
@@ -8114,10 +9557,15 @@
       <c r="R45" s="1">
         <v>240.26</v>
       </c>
+      <c r="S45" s="1">
+        <v>33</v>
+      </c>
       <c r="T45" s="1">
         <v>185.07</v>
       </c>
-      <c r="U45" s="1"/>
+      <c r="U45" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1">
@@ -8141,6 +9589,9 @@
       <c r="G46" s="1">
         <v>94.2</v>
       </c>
+      <c r="H46" s="1">
+        <v>50</v>
+      </c>
       <c r="I46" s="1">
         <v>170.15</v>
       </c>
@@ -8165,10 +9616,15 @@
       <c r="R46" s="1">
         <v>13.34</v>
       </c>
+      <c r="S46" s="1">
+        <v>47</v>
+      </c>
       <c r="T46" s="1">
         <v>35.659999999999997</v>
       </c>
-      <c r="U46" s="1"/>
+      <c r="U46" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1">
@@ -8192,6 +9648,9 @@
       <c r="G47" s="1">
         <v>86.72</v>
       </c>
+      <c r="H47" s="1">
+        <v>50</v>
+      </c>
       <c r="I47" s="1">
         <v>166.47</v>
       </c>
@@ -8216,10 +9675,15 @@
       <c r="R47" s="1">
         <v>13.44</v>
       </c>
+      <c r="S47" s="1">
+        <v>47</v>
+      </c>
       <c r="T47" s="1">
         <v>34.49</v>
       </c>
-      <c r="U47" s="1"/>
+      <c r="U47" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1">
@@ -8243,6 +9707,9 @@
       <c r="G48" s="1">
         <v>246.5</v>
       </c>
+      <c r="H48" s="1">
+        <v>50</v>
+      </c>
       <c r="I48" s="1">
         <v>522.80999999999995</v>
       </c>
@@ -8267,10 +9734,15 @@
       <c r="R48" s="1">
         <v>417.01</v>
       </c>
+      <c r="S48" s="1">
+        <v>121</v>
+      </c>
       <c r="T48" s="1">
         <v>967.44</v>
       </c>
-      <c r="U48" s="1"/>
+      <c r="U48" s="1">
+        <v>121</v>
+      </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1">
@@ -8294,6 +9766,9 @@
       <c r="G49" s="1">
         <v>246.77</v>
       </c>
+      <c r="H49" s="1">
+        <v>50</v>
+      </c>
       <c r="I49" s="1">
         <v>498.37</v>
       </c>
@@ -8318,10 +9793,15 @@
       <c r="R49" s="1">
         <v>377.95</v>
       </c>
+      <c r="S49" s="1">
+        <v>120</v>
+      </c>
       <c r="T49" s="1">
         <v>843.82</v>
       </c>
-      <c r="U49" s="1"/>
+      <c r="U49" s="1">
+        <v>120</v>
+      </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1">
@@ -8345,6 +9825,9 @@
       <c r="G50" s="1">
         <v>67.38</v>
       </c>
+      <c r="H50" s="1">
+        <v>50</v>
+      </c>
       <c r="I50" s="1">
         <v>49.72</v>
       </c>
@@ -8369,10 +9852,15 @@
       <c r="R50" s="1">
         <v>10.09</v>
       </c>
+      <c r="S50" s="1">
+        <v>47</v>
+      </c>
       <c r="T50" s="1">
         <v>16.510000000000002</v>
       </c>
-      <c r="U50" s="1"/>
+      <c r="U50" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1">
@@ -8396,6 +9884,9 @@
       <c r="G51" s="1">
         <v>64.7</v>
       </c>
+      <c r="H51" s="1">
+        <v>50</v>
+      </c>
       <c r="I51" s="1">
         <v>50.62</v>
       </c>
@@ -8420,10 +9911,15 @@
       <c r="R51" s="1">
         <v>10.039999999999999</v>
       </c>
+      <c r="S51" s="1">
+        <v>47</v>
+      </c>
       <c r="T51" s="1">
         <v>16.350000000000001</v>
       </c>
-      <c r="U51" s="1"/>
+      <c r="U51" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1">
@@ -8447,6 +9943,9 @@
       <c r="G52" s="1">
         <v>179.56</v>
       </c>
+      <c r="H52" s="1">
+        <v>50</v>
+      </c>
       <c r="I52" s="1">
         <v>152.57</v>
       </c>
@@ -8471,10 +9970,15 @@
       <c r="R52" s="1">
         <v>281.56</v>
       </c>
+      <c r="S52" s="1">
+        <v>121</v>
+      </c>
       <c r="T52" s="1">
         <v>289.31</v>
       </c>
-      <c r="U52" s="1"/>
+      <c r="U52" s="1">
+        <v>121</v>
+      </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1">
@@ -8498,6 +10002,9 @@
       <c r="G53" s="1">
         <v>183.24</v>
       </c>
+      <c r="H53" s="1">
+        <v>50</v>
+      </c>
       <c r="I53" s="1">
         <v>149.03</v>
       </c>
@@ -8522,10 +10029,15 @@
       <c r="R53" s="1">
         <v>264.82</v>
       </c>
+      <c r="S53" s="1">
+        <v>120</v>
+      </c>
       <c r="T53" s="1">
         <v>260.26</v>
       </c>
-      <c r="U53" s="1"/>
+      <c r="U53" s="1">
+        <v>120</v>
+      </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1">
@@ -8549,6 +10061,9 @@
       <c r="G54" s="1">
         <v>116.76</v>
       </c>
+      <c r="H54" s="1">
+        <v>50</v>
+      </c>
       <c r="I54" s="1">
         <v>238.03</v>
       </c>
@@ -8594,6 +10109,9 @@
       <c r="G55" s="1">
         <v>116.78</v>
       </c>
+      <c r="H55" s="1">
+        <v>50</v>
+      </c>
       <c r="I55" s="1">
         <v>231.32</v>
       </c>
@@ -8639,6 +10157,9 @@
       <c r="G56" s="1">
         <v>937.76</v>
       </c>
+      <c r="H56" s="1">
+        <v>50</v>
+      </c>
       <c r="L56" s="1">
         <v>19</v>
       </c>
@@ -8681,6 +10202,9 @@
       <c r="G57" s="1">
         <v>881.26</v>
       </c>
+      <c r="H57" s="1">
+        <v>50</v>
+      </c>
       <c r="L57" s="1">
         <v>20</v>
       </c>
@@ -8723,6 +10247,9 @@
       <c r="G58" s="1">
         <v>86.93</v>
       </c>
+      <c r="H58" s="1">
+        <v>50</v>
+      </c>
       <c r="I58" s="1">
         <v>70.98</v>
       </c>
@@ -8768,6 +10295,9 @@
       <c r="G59" s="1">
         <v>86.87</v>
       </c>
+      <c r="H59" s="1">
+        <v>50</v>
+      </c>
       <c r="I59" s="1">
         <v>67.27</v>
       </c>
@@ -8813,6 +10343,9 @@
       <c r="G60" s="1">
         <v>645.12</v>
       </c>
+      <c r="H60" s="1">
+        <v>50</v>
+      </c>
       <c r="L60" s="1">
         <v>23</v>
       </c>
@@ -8855,6 +10388,9 @@
       <c r="G61" s="1">
         <v>605.94000000000005</v>
       </c>
+      <c r="H61" s="1">
+        <v>50</v>
+      </c>
       <c r="L61" s="1">
         <v>24</v>
       </c>
@@ -8897,6 +10433,9 @@
       <c r="G62" s="1">
         <v>89.45</v>
       </c>
+      <c r="H62" s="1">
+        <v>50</v>
+      </c>
       <c r="L62" s="1">
         <v>25</v>
       </c>
@@ -8939,6 +10478,9 @@
       <c r="G63" s="1">
         <v>89.61</v>
       </c>
+      <c r="H63" s="1">
+        <v>50</v>
+      </c>
       <c r="L63" s="1">
         <v>26</v>
       </c>
@@ -8981,6 +10523,9 @@
       <c r="G64" s="1">
         <v>245.95</v>
       </c>
+      <c r="H64" s="1">
+        <v>50</v>
+      </c>
       <c r="L64" s="1">
         <v>27</v>
       </c>
@@ -9023,6 +10568,9 @@
       <c r="G65" s="1">
         <v>248.13</v>
       </c>
+      <c r="H65" s="1">
+        <v>50</v>
+      </c>
       <c r="L65" s="1">
         <v>28</v>
       </c>
@@ -9065,6 +10613,9 @@
       <c r="G66" s="1">
         <v>69.010000000000005</v>
       </c>
+      <c r="H66" s="1">
+        <v>50</v>
+      </c>
       <c r="L66" s="1">
         <v>29</v>
       </c>
@@ -9107,6 +10658,9 @@
       <c r="G67" s="1">
         <v>65</v>
       </c>
+      <c r="H67" s="1">
+        <v>50</v>
+      </c>
       <c r="L67" s="1">
         <v>30</v>
       </c>
@@ -9149,6 +10703,9 @@
       <c r="G68" s="1">
         <v>182.58</v>
       </c>
+      <c r="H68" s="1">
+        <v>50</v>
+      </c>
       <c r="L68" s="1">
         <v>31</v>
       </c>
@@ -9190,6 +10747,9 @@
       </c>
       <c r="G69" s="1">
         <v>181.32</v>
+      </c>
+      <c r="H69" s="1">
+        <v>50</v>
       </c>
       <c r="L69" s="1">
         <v>32</v>

--- a/Runtime statistics.xlsx
+++ b/Runtime statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CFD\shixi_zengdao\IAMR_Code\IAMR_Tutorial_Profiling_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E198E7-3E21-4954-850B-EE9A639B1962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D70DE-31D1-45D8-B3ED-25AA2004D3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D934AF4-408A-42B0-AD91-F7EA715A6D7B}">
   <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
@@ -7153,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALX69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46:U53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
@@ -9123,6 +9123,9 @@
       <c r="I38" s="1">
         <v>242.1</v>
       </c>
+      <c r="J38" s="1">
+        <v>50</v>
+      </c>
       <c r="L38" s="1">
         <v>1</v>
       </c>
@@ -9181,6 +9184,9 @@
       </c>
       <c r="I39" s="1">
         <v>229.38</v>
+      </c>
+      <c r="J39" s="1">
+        <v>50</v>
       </c>
       <c r="L39" s="1">
         <v>2</v>
@@ -9241,6 +9247,9 @@
       <c r="I40" s="1">
         <v>1027.08</v>
       </c>
+      <c r="J40" s="1">
+        <v>50</v>
+      </c>
       <c r="L40" s="1">
         <v>3</v>
       </c>
@@ -9299,6 +9308,9 @@
       </c>
       <c r="I41" s="1">
         <v>1014.68</v>
+      </c>
+      <c r="J41" s="1">
+        <v>50</v>
       </c>
       <c r="L41" s="1">
         <v>4</v>
@@ -9359,6 +9371,9 @@
       <c r="I42" s="1">
         <v>70.75</v>
       </c>
+      <c r="J42" s="1">
+        <v>50</v>
+      </c>
       <c r="L42" s="1">
         <v>5</v>
       </c>
@@ -9418,6 +9433,9 @@
       <c r="I43" s="1">
         <v>68.33</v>
       </c>
+      <c r="J43" s="1">
+        <v>50</v>
+      </c>
       <c r="L43" s="1">
         <v>6</v>
       </c>
@@ -9477,6 +9495,9 @@
       <c r="I44" s="1">
         <v>303.95999999999998</v>
       </c>
+      <c r="J44" s="1">
+        <v>50</v>
+      </c>
       <c r="L44" s="1">
         <v>7</v>
       </c>
@@ -9535,6 +9556,9 @@
       </c>
       <c r="I45" s="1">
         <v>299.31</v>
+      </c>
+      <c r="J45" s="1">
+        <v>50</v>
       </c>
       <c r="L45" s="1">
         <v>8</v>
@@ -9595,6 +9619,9 @@
       <c r="I46" s="1">
         <v>170.15</v>
       </c>
+      <c r="J46" s="1">
+        <v>50</v>
+      </c>
       <c r="L46" s="1">
         <v>9</v>
       </c>
@@ -9654,6 +9681,9 @@
       <c r="I47" s="1">
         <v>166.47</v>
       </c>
+      <c r="J47" s="1">
+        <v>50</v>
+      </c>
       <c r="L47" s="1">
         <v>10</v>
       </c>
@@ -9712,6 +9742,9 @@
       </c>
       <c r="I48" s="1">
         <v>522.80999999999995</v>
+      </c>
+      <c r="J48" s="1">
+        <v>50</v>
       </c>
       <c r="L48" s="1">
         <v>11</v>
@@ -9772,6 +9805,9 @@
       <c r="I49" s="1">
         <v>498.37</v>
       </c>
+      <c r="J49" s="1">
+        <v>50</v>
+      </c>
       <c r="L49" s="1">
         <v>12</v>
       </c>
@@ -9831,6 +9867,9 @@
       <c r="I50" s="1">
         <v>49.72</v>
       </c>
+      <c r="J50" s="1">
+        <v>50</v>
+      </c>
       <c r="L50" s="1">
         <v>13</v>
       </c>
@@ -9890,6 +9929,9 @@
       <c r="I51" s="1">
         <v>50.62</v>
       </c>
+      <c r="J51" s="1">
+        <v>50</v>
+      </c>
       <c r="L51" s="1">
         <v>14</v>
       </c>
@@ -9949,6 +9991,9 @@
       <c r="I52" s="1">
         <v>152.57</v>
       </c>
+      <c r="J52" s="1">
+        <v>50</v>
+      </c>
       <c r="L52" s="1">
         <v>15</v>
       </c>
@@ -10007,6 +10052,9 @@
       </c>
       <c r="I53" s="1">
         <v>149.03</v>
+      </c>
+      <c r="J53" s="1">
+        <v>50</v>
       </c>
       <c r="L53" s="1">
         <v>16</v>
@@ -10067,6 +10115,9 @@
       <c r="I54" s="1">
         <v>238.03</v>
       </c>
+      <c r="J54" s="1">
+        <v>50</v>
+      </c>
       <c r="L54" s="1">
         <v>17</v>
       </c>
@@ -10115,6 +10166,9 @@
       <c r="I55" s="1">
         <v>231.32</v>
       </c>
+      <c r="J55" s="1">
+        <v>50</v>
+      </c>
       <c r="L55" s="1">
         <v>18</v>
       </c>
@@ -10253,6 +10307,9 @@
       <c r="I58" s="1">
         <v>70.98</v>
       </c>
+      <c r="J58" s="1">
+        <v>50</v>
+      </c>
       <c r="L58" s="1">
         <v>21</v>
       </c>
@@ -10300,6 +10357,9 @@
       </c>
       <c r="I59" s="1">
         <v>67.27</v>
+      </c>
+      <c r="J59" s="1">
+        <v>50</v>
       </c>
       <c r="L59" s="1">
         <v>22</v>
